--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/57_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/57_11R22.xlsx
@@ -689,25 +689,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09907522425511477</v>
+        <v>0.09480501419375219</v>
       </c>
       <c r="E2">
-        <v>0.05172620169333811</v>
+        <v>0.0531709906540305</v>
       </c>
       <c r="F2">
-        <v>0.2383703447780526</v>
+        <v>0.2172872960455859</v>
       </c>
       <c r="G2">
-        <v>0.138574432866832</v>
+        <v>0.1295366916849824</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006199035702297708</v>
+        <v>0.01313892667436239</v>
       </c>
       <c r="J2">
-        <v>0.005591863574263263</v>
+        <v>0.0126050398631137</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.02281980210887334</v>
+        <v>0.02775357640481333</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2052797993647073</v>
+        <v>0.188190759894624</v>
       </c>
       <c r="P2">
-        <v>0.004504079838684101</v>
+        <v>0.01164855098112801</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.03680450851793868</v>
+        <v>0.04005033702054665</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.09736473628333166</v>
+        <v>0.09330098110861902</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.005253850563421868</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.001246551012101559</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -767,22 +767,22 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.03133944353915809</v>
+        <v>0.03524490215278785</v>
       </c>
       <c r="AE2">
-        <v>0.02336132930979603</v>
+        <v>0.02822974159283172</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.0003275636278018614</v>
       </c>
       <c r="AG2">
-        <v>0.03898919816761246</v>
+        <v>0.04197133592148133</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.002286077357051458</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.003951813246964041</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,22 +799,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3538781619529383</v>
+        <v>0.3188831965383863</v>
       </c>
       <c r="E3">
-        <v>0.02548419819053828</v>
+        <v>0.02844210375607425</v>
       </c>
       <c r="F3">
-        <v>0.3210796571627028</v>
+        <v>0.2898752529581742</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.007064426638044304</v>
+        <v>0.01215112654926533</v>
       </c>
       <c r="I3">
-        <v>0.002773113479709287</v>
+        <v>0.008355765426002675</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -823,70 +823,70 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01174076751863892</v>
+        <v>0.01628701729470299</v>
       </c>
       <c r="M3">
-        <v>0.004028127848226357</v>
+        <v>0.009465736329467057</v>
       </c>
       <c r="N3">
-        <v>0.06223601310508348</v>
+        <v>0.0609464688278903</v>
       </c>
       <c r="O3">
-        <v>0.07660211892773543</v>
+        <v>0.07365226715120013</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.002090677827896213</v>
       </c>
       <c r="R3">
-        <v>1.903349094185803E-05</v>
+        <v>0.005919977653343575</v>
       </c>
       <c r="S3">
-        <v>0.02160909241117735</v>
+        <v>0.02501484844263932</v>
       </c>
       <c r="T3">
-        <v>0.04645969386831118</v>
+        <v>0.04699343708907918</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.002313616679453514</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.004589110358415954</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.003496211821963503</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.004538895306292882</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.003503541330231741</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.004889375637951402</v>
       </c>
       <c r="AD3">
-        <v>0.03026406181334897</v>
+        <v>0.03266955300043368</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.001602571700131267</v>
       </c>
       <c r="AF3">
-        <v>0.02026971142940604</v>
+        <v>0.02383026127319012</v>
       </c>
       <c r="AG3">
-        <v>0.01649182216319732</v>
+        <v>0.02048898704781455</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3083505097414167</v>
+        <v>0.3104794710926247</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.346619634268323</v>
+        <v>0.3490857033302734</v>
       </c>
       <c r="G4">
-        <v>0.04568315030783415</v>
+        <v>0.04549830925775793</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01359901158220007</v>
+        <v>0.01313154555204794</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -933,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.007875671437466434</v>
+        <v>0.007357789252833561</v>
       </c>
       <c r="M4">
-        <v>0.0005821300365309606</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.01151370671981604</v>
+        <v>0.01102787151197696</v>
       </c>
       <c r="O4">
-        <v>0.09087620237824402</v>
+        <v>0.09108946101069923</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02200314681396942</v>
+        <v>0.02160971171145868</v>
       </c>
       <c r="S4">
-        <v>0.007342509182449214</v>
+        <v>0.006819930441271998</v>
       </c>
       <c r="T4">
-        <v>0.08490449157637305</v>
+        <v>0.08506514618972613</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.02717619158922793</v>
+        <v>0.02682832516129007</v>
       </c>
       <c r="AE4">
-        <v>0.001109353400884108</v>
+        <v>0.0005318676059866869</v>
       </c>
       <c r="AF4">
-        <v>0.01042890668280907</v>
+        <v>0.009933515613381592</v>
       </c>
       <c r="AG4">
-        <v>0.02193538428245577</v>
+        <v>0.02154135226867113</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1019,55 +1019,55 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2867534322645797</v>
+        <v>0.287878093342919</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3415232597435729</v>
+        <v>0.3429225988618912</v>
       </c>
       <c r="G5">
-        <v>0.131404984673549</v>
+        <v>0.1317505524251029</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001304076220064982</v>
+        <v>0.0009971704441609282</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0003118817643436744</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.00857766052171237</v>
+        <v>0.008307232747868197</v>
       </c>
       <c r="M5">
-        <v>0.01917473590664319</v>
+        <v>0.01895745388896117</v>
       </c>
       <c r="N5">
-        <v>0.001693983986844822</v>
+        <v>0.00138903365075282</v>
       </c>
       <c r="O5">
-        <v>0.07907712079290419</v>
+        <v>0.07916025727986202</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001867881158259138</v>
+        <v>0.001563802939834849</v>
       </c>
       <c r="R5">
-        <v>0.02429763634433493</v>
+        <v>0.02410604636031455</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0541286482851956</v>
+        <v>0.05408666483213694</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1091,22 +1091,22 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001775684531343482</v>
+        <v>0.001471143934453904</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01954153400374887</v>
+        <v>0.01932609152778203</v>
       </c>
       <c r="AE5">
-        <v>0.007395282395664078</v>
+        <v>0.007118924836733373</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.02117219740723891</v>
+        <v>0.02096493292722629</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08802743037407133</v>
+        <v>0.0854157778322381</v>
       </c>
       <c r="F6">
-        <v>0.09438591364409819</v>
+        <v>0.09117165687769607</v>
       </c>
       <c r="G6">
-        <v>0.1913491791932337</v>
+        <v>0.1789455495895487</v>
       </c>
       <c r="H6">
-        <v>0.3169165097644219</v>
+        <v>0.292612651653929</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005243632594509323</v>
       </c>
       <c r="J6">
-        <v>0.00463534085340037</v>
+        <v>0.009926897820297976</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.01369372979504757</v>
+        <v>0.01812680790587019</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1162720046724285</v>
+        <v>0.1109835660055815</v>
       </c>
       <c r="Q6">
-        <v>0.01956521288573922</v>
+        <v>0.02344184060349183</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0256809497389969</v>
+        <v>0.0289779787210735</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.0001241589362653242</v>
       </c>
       <c r="U6">
-        <v>0.05260638648660561</v>
+        <v>0.05335164624268526</v>
       </c>
       <c r="V6">
-        <v>0.006470226892499716</v>
+        <v>0.01158788860296472</v>
       </c>
       <c r="W6">
-        <v>0.0004936467408553195</v>
+        <v>0.006177719070788731</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1201,28 +1201,28 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.001304857839683709</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.001864563837054857</v>
       </c>
       <c r="AE6">
-        <v>0.01132518522481476</v>
+        <v>0.0159827343145625</v>
       </c>
       <c r="AF6">
-        <v>0.03080332696405915</v>
+        <v>0.03361489958420608</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.02777495676972805</v>
+        <v>0.0308735331602969</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.0002716388072556186</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1239,16 +1239,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3405484103261412</v>
+        <v>0.3681519126428766</v>
       </c>
       <c r="E7">
-        <v>0.006571779856966608</v>
+        <v>0.0009678269132538794</v>
       </c>
       <c r="F7">
-        <v>0.2470541604949841</v>
+        <v>0.2653614850701339</v>
       </c>
       <c r="G7">
-        <v>0.06344726738240644</v>
+        <v>0.06349847122246019</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1260,34 +1260,34 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.02413023079385734</v>
+        <v>0.02027212298041754</v>
       </c>
       <c r="L7">
-        <v>0.005691481434654466</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.01254866787051358</v>
+        <v>0.007538999745555226</v>
       </c>
       <c r="N7">
-        <v>0.05754096293816267</v>
+        <v>0.05700490011733874</v>
       </c>
       <c r="O7">
-        <v>0.08726112549029227</v>
+        <v>0.08968015257170679</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.02828016007398412</v>
+        <v>0.02483468170323988</v>
       </c>
       <c r="R7">
-        <v>0.01649419536534821</v>
+        <v>0.0118768329163275</v>
       </c>
       <c r="S7">
-        <v>0.02307832520160411</v>
+        <v>0.01911562591467142</v>
       </c>
       <c r="T7">
-        <v>0.04494877478915096</v>
+        <v>0.04316066470980471</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.01813263901168832</v>
+        <v>0.01367818779393003</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.00506594437852847</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.01920587459171689</v>
+        <v>0.01485813569828397</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1349,16 +1349,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2688434842538285</v>
+        <v>0.2327716032096546</v>
       </c>
       <c r="E8">
-        <v>0.01820223950835434</v>
+        <v>0.02448826049250178</v>
       </c>
       <c r="F8">
-        <v>0.2939017510082181</v>
+        <v>0.2535950697049734</v>
       </c>
       <c r="G8">
-        <v>0.1511911085369169</v>
+        <v>0.1350022591505093</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1367,58 +1367,58 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.001419716222726965</v>
       </c>
       <c r="K8">
-        <v>0.001348091699953542</v>
+        <v>0.01048243217103961</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.008874502280436668</v>
       </c>
       <c r="N8">
-        <v>0.003204137165711815</v>
+        <v>0.01202480942118342</v>
       </c>
       <c r="O8">
-        <v>0.1117082611832371</v>
+        <v>0.1021919392242473</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.009328418238687294</v>
+        <v>0.01711409843630174</v>
       </c>
       <c r="R8">
-        <v>0.03546693896980187</v>
+        <v>0.03883525800477875</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.003825817785986267</v>
       </c>
       <c r="T8">
-        <v>0.06461861020555326</v>
+        <v>0.06306035127280686</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.0004129222119990951</v>
       </c>
       <c r="W8">
-        <v>0.005322639972598444</v>
+        <v>0.01378528921221744</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.007299257431598268</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.002573488119627424</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.005189118327287886</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1427,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.008181430041312145</v>
+        <v>0.0161609491010875</v>
       </c>
       <c r="AE8">
-        <v>0.01180503556137606</v>
+        <v>0.01917217205911931</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.01687785365445055</v>
+        <v>0.02338769337323729</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.008332992786679006</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1459,25 +1459,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08341523305446019</v>
+        <v>0.07982759441955263</v>
       </c>
       <c r="E9">
-        <v>0.1197591270810147</v>
+        <v>0.1104792637236455</v>
       </c>
       <c r="F9">
-        <v>0.2546540913044649</v>
+        <v>0.2242468151902985</v>
       </c>
       <c r="G9">
-        <v>0.2869479718441105</v>
+        <v>0.2514827890274403</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.00259604519844726</v>
       </c>
       <c r="I9">
-        <v>0.01431023295130868</v>
+        <v>0.02154590317112844</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.001142325378439933</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1486,70 +1486,70 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.001561998656015001</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1006776879632361</v>
+        <v>0.09438638272258949</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.004261481893001007</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.004113631996362843</v>
       </c>
       <c r="R9">
-        <v>0.02790493324343083</v>
+        <v>0.03301138503000469</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.0002799529717634724</v>
       </c>
       <c r="T9">
-        <v>0.06626432642445765</v>
+        <v>0.0653628835686981</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.008000906530144174</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.008160211553092416</v>
       </c>
       <c r="X9">
-        <v>0.0007378132949413345</v>
+        <v>0.01009921232783632</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.0002018164983066732</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.001188840581470357</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.0008967423224085899</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.001016826991451748</v>
       </c>
       <c r="AD9">
-        <v>0.005281006815759735</v>
+        <v>0.01393084537417074</v>
       </c>
       <c r="AE9">
-        <v>0.01412059079117448</v>
+        <v>0.02138596299591495</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.0150058016494421</v>
+        <v>0.02213253105689891</v>
       </c>
       <c r="AH9">
-        <v>0.01092118358219885</v>
+        <v>0.01868765082091799</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1569,25 +1569,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05435782485181691</v>
+        <v>0.05496710536619327</v>
       </c>
       <c r="E10">
-        <v>0.1523847789469605</v>
+        <v>0.1363883261771281</v>
       </c>
       <c r="F10">
-        <v>0.2444754141010325</v>
+        <v>0.2128788384929688</v>
       </c>
       <c r="G10">
-        <v>0.3031866942974247</v>
+        <v>0.2616444474327649</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001221266716081308</v>
       </c>
       <c r="I10">
-        <v>0.0260212179282066</v>
+        <v>0.03143071019144775</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.007218422579310105</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1596,70 +1596,70 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.005405737455006783</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.08690768737470629</v>
+        <v>0.08200303204886315</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.00231906802425214</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.004792082048981719</v>
       </c>
       <c r="R10">
-        <v>0.03347589907616821</v>
+        <v>0.03762257084269453</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.0005645884742215551</v>
       </c>
       <c r="T10">
-        <v>0.05119483657831494</v>
+        <v>0.05233992624983266</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.0005583172075326375</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.006593113160135089</v>
       </c>
       <c r="W10">
-        <v>0.002604301547497577</v>
+        <v>0.01198061162473768</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.005862769666455422</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.002888930294083655</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.00103219412570074</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.580850594108223E-05</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.002862711157904658</v>
       </c>
       <c r="AD10">
-        <v>0.003967348728600804</v>
+        <v>0.013112759068599</v>
       </c>
       <c r="AE10">
-        <v>0.01298687394915586</v>
+        <v>0.02060437972917598</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.0004374440349760093</v>
       </c>
       <c r="AG10">
-        <v>0.01894121386904455</v>
+        <v>0.0255500564552943</v>
       </c>
       <c r="AH10">
-        <v>0.009495908751070483</v>
+        <v>0.0177047828697171</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1679,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2315835354771753</v>
+        <v>0.208603462038011</v>
       </c>
       <c r="E11">
-        <v>0.03477456225788138</v>
+        <v>0.03743268925305464</v>
       </c>
       <c r="F11">
-        <v>0.1819504227888931</v>
+        <v>0.1654360285841017</v>
       </c>
       <c r="G11">
-        <v>0.1305907837037725</v>
+        <v>0.1207669824102725</v>
       </c>
       <c r="H11">
-        <v>0.004756881492736222</v>
+        <v>0.01132539582158674</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1700,34 +1700,34 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.001043032104946492</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.04224920217435892</v>
+        <v>0.04393361179669868</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.00290941638275313</v>
       </c>
       <c r="O11">
-        <v>0.1756503241603455</v>
+        <v>0.1599566404584986</v>
       </c>
       <c r="P11">
-        <v>0.005471762267085502</v>
+        <v>0.01194714945706822</v>
       </c>
       <c r="Q11">
-        <v>0.005799569155759768</v>
+        <v>0.01223225311642264</v>
       </c>
       <c r="R11">
-        <v>0.02526655534956692</v>
+        <v>0.02916328535586821</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.04846411847037514</v>
+        <v>0.04933891424699683</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.01838596178197461</v>
+        <v>0.0231790230586829</v>
       </c>
       <c r="X11">
-        <v>0.01105870263698613</v>
+        <v>0.01680628207168627</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.004117777670790593</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1757,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.004799546174787673</v>
+        <v>0.01136250259816259</v>
       </c>
       <c r="AE11">
-        <v>0.02169197279361902</v>
+        <v>0.02605436177135534</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.03202906214418771</v>
+        <v>0.03504484398129212</v>
       </c>
       <c r="AH11">
-        <v>0.02547703717049429</v>
+        <v>0.02934634782175069</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09907522425511477</v>
+        <v>0.09480501419375219</v>
       </c>
       <c r="E2">
-        <v>0.1508014259484529</v>
+        <v>0.1479760048477827</v>
       </c>
       <c r="F2">
-        <v>0.3891717707265054</v>
+        <v>0.3652633008933687</v>
       </c>
       <c r="G2">
-        <v>0.5277462035933375</v>
+        <v>0.4947999925783511</v>
       </c>
       <c r="H2">
-        <v>0.5277462035933375</v>
+        <v>0.4947999925783511</v>
       </c>
       <c r="I2">
-        <v>0.5339452392956352</v>
+        <v>0.5079389192527135</v>
       </c>
       <c r="J2">
-        <v>0.5395371028698984</v>
+        <v>0.5205439591158272</v>
       </c>
       <c r="K2">
-        <v>0.5395371028698984</v>
+        <v>0.5205439591158272</v>
       </c>
       <c r="L2">
-        <v>0.5395371028698984</v>
+        <v>0.5205439591158272</v>
       </c>
       <c r="M2">
-        <v>0.5623569049787718</v>
+        <v>0.5482975355206405</v>
       </c>
       <c r="N2">
-        <v>0.5623569049787718</v>
+        <v>0.5482975355206405</v>
       </c>
       <c r="O2">
-        <v>0.7676367043434791</v>
+        <v>0.7364882954152645</v>
       </c>
       <c r="P2">
-        <v>0.7721407841821631</v>
+        <v>0.7481368463963926</v>
       </c>
       <c r="Q2">
-        <v>0.7721407841821631</v>
+        <v>0.7481368463963926</v>
       </c>
       <c r="R2">
-        <v>0.8089452927001018</v>
+        <v>0.7881871834169392</v>
       </c>
       <c r="S2">
-        <v>0.8089452927001018</v>
+        <v>0.7881871834169392</v>
       </c>
       <c r="T2">
-        <v>0.9063100289834335</v>
+        <v>0.8814881645255582</v>
       </c>
       <c r="U2">
-        <v>0.9063100289834335</v>
+        <v>0.8814881645255582</v>
       </c>
       <c r="V2">
-        <v>0.9063100289834335</v>
+        <v>0.8814881645255582</v>
       </c>
       <c r="W2">
-        <v>0.9063100289834335</v>
+        <v>0.8814881645255582</v>
       </c>
       <c r="X2">
-        <v>0.9063100289834335</v>
+        <v>0.8814881645255582</v>
       </c>
       <c r="Y2">
-        <v>0.9063100289834335</v>
+        <v>0.8814881645255582</v>
       </c>
       <c r="Z2">
-        <v>0.9063100289834335</v>
+        <v>0.8867420150889801</v>
       </c>
       <c r="AA2">
-        <v>0.9063100289834335</v>
+        <v>0.8879885661010817</v>
       </c>
       <c r="AB2">
-        <v>0.9063100289834335</v>
+        <v>0.8879885661010817</v>
       </c>
       <c r="AC2">
-        <v>0.9063100289834335</v>
+        <v>0.8879885661010817</v>
       </c>
       <c r="AD2">
-        <v>0.9376494725225916</v>
+        <v>0.9232334682538695</v>
       </c>
       <c r="AE2">
-        <v>0.9610108018323876</v>
+        <v>0.9514632098467013</v>
       </c>
       <c r="AF2">
-        <v>0.9610108018323876</v>
+        <v>0.9517907734745031</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9937621093959844</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9960481867530359</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,91 +2022,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3538781619529383</v>
+        <v>0.3188831965383863</v>
       </c>
       <c r="E3">
-        <v>0.3793623601434766</v>
+        <v>0.3473253002944605</v>
       </c>
       <c r="F3">
-        <v>0.7004420173061794</v>
+        <v>0.6372005532526348</v>
       </c>
       <c r="G3">
-        <v>0.7004420173061794</v>
+        <v>0.6372005532526348</v>
       </c>
       <c r="H3">
-        <v>0.7075064439442237</v>
+        <v>0.6493516798019001</v>
       </c>
       <c r="I3">
-        <v>0.710279557423933</v>
+        <v>0.6577074452279028</v>
       </c>
       <c r="J3">
-        <v>0.710279557423933</v>
+        <v>0.6577074452279028</v>
       </c>
       <c r="K3">
-        <v>0.710279557423933</v>
+        <v>0.6577074452279028</v>
       </c>
       <c r="L3">
-        <v>0.722020324942572</v>
+        <v>0.6739944625226058</v>
       </c>
       <c r="M3">
-        <v>0.7260484527907983</v>
+        <v>0.6834601988520728</v>
       </c>
       <c r="N3">
-        <v>0.7882844658958819</v>
+        <v>0.7444066676799631</v>
       </c>
       <c r="O3">
-        <v>0.8648865848236172</v>
+        <v>0.8180589348311632</v>
       </c>
       <c r="P3">
-        <v>0.8648865848236172</v>
+        <v>0.8180589348311632</v>
       </c>
       <c r="Q3">
-        <v>0.8648865848236172</v>
+        <v>0.8201496126590594</v>
       </c>
       <c r="R3">
-        <v>0.8649056183145591</v>
+        <v>0.826069590312403</v>
       </c>
       <c r="S3">
-        <v>0.8865147107257365</v>
+        <v>0.8510844387550424</v>
       </c>
       <c r="T3">
-        <v>0.9329744045940477</v>
+        <v>0.8980778758441216</v>
       </c>
       <c r="U3">
-        <v>0.9329744045940477</v>
+        <v>0.9003914925235751</v>
       </c>
       <c r="V3">
-        <v>0.9329744045940477</v>
+        <v>0.9003914925235751</v>
       </c>
       <c r="W3">
-        <v>0.9329744045940477</v>
+        <v>0.904980602881991</v>
       </c>
       <c r="X3">
-        <v>0.9329744045940477</v>
+        <v>0.904980602881991</v>
       </c>
       <c r="Y3">
-        <v>0.9329744045940477</v>
+        <v>0.9084768147039545</v>
       </c>
       <c r="Z3">
-        <v>0.9329744045940477</v>
+        <v>0.9130157100102474</v>
       </c>
       <c r="AA3">
-        <v>0.9329744045940477</v>
+        <v>0.9130157100102474</v>
       </c>
       <c r="AB3">
-        <v>0.9329744045940477</v>
+        <v>0.9165192513404792</v>
       </c>
       <c r="AC3">
-        <v>0.9329744045940477</v>
+        <v>0.9214086269784306</v>
       </c>
       <c r="AD3">
-        <v>0.9632384664073966</v>
+        <v>0.9540781799788643</v>
       </c>
       <c r="AE3">
-        <v>0.9632384664073966</v>
+        <v>0.9556807516789956</v>
       </c>
       <c r="AF3">
-        <v>0.9835081778368027</v>
+        <v>0.9795110129521857</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3083505097414167</v>
+        <v>0.3104794710926247</v>
       </c>
       <c r="E4">
-        <v>0.3083505097414167</v>
+        <v>0.3104794710926247</v>
       </c>
       <c r="F4">
-        <v>0.6549701440097397</v>
+        <v>0.6595651744228981</v>
       </c>
       <c r="G4">
-        <v>0.7006532943175738</v>
+        <v>0.705063483680656</v>
       </c>
       <c r="H4">
-        <v>0.7006532943175738</v>
+        <v>0.705063483680656</v>
       </c>
       <c r="I4">
-        <v>0.714252305899774</v>
+        <v>0.718195029232704</v>
       </c>
       <c r="J4">
-        <v>0.714252305899774</v>
+        <v>0.718195029232704</v>
       </c>
       <c r="K4">
-        <v>0.714252305899774</v>
+        <v>0.718195029232704</v>
       </c>
       <c r="L4">
-        <v>0.7221279773372404</v>
+        <v>0.7255528184855375</v>
       </c>
       <c r="M4">
-        <v>0.7227101073737714</v>
+        <v>0.7255528184855375</v>
       </c>
       <c r="N4">
-        <v>0.7342238140935874</v>
+        <v>0.7365806899975145</v>
       </c>
       <c r="O4">
-        <v>0.8251000164718314</v>
+        <v>0.8276701510082137</v>
       </c>
       <c r="P4">
-        <v>0.8251000164718314</v>
+        <v>0.8276701510082137</v>
       </c>
       <c r="Q4">
-        <v>0.8251000164718314</v>
+        <v>0.8276701510082137</v>
       </c>
       <c r="R4">
-        <v>0.8471031632858008</v>
+        <v>0.8492798627196724</v>
       </c>
       <c r="S4">
-        <v>0.85444567246825</v>
+        <v>0.8560997931609444</v>
       </c>
       <c r="T4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="U4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="V4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="W4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="X4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="Y4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="Z4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="AA4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="AB4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="AC4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="AD4">
-        <v>0.9665263556338509</v>
+        <v>0.9679932645119607</v>
       </c>
       <c r="AE4">
-        <v>0.9676357090347351</v>
+        <v>0.9685251321179473</v>
       </c>
       <c r="AF4">
-        <v>0.9780646157175441</v>
+        <v>0.978458647731329</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,91 +2242,91 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2867534322645797</v>
+        <v>0.287878093342919</v>
       </c>
       <c r="E5">
-        <v>0.2867534322645797</v>
+        <v>0.287878093342919</v>
       </c>
       <c r="F5">
-        <v>0.6282766920081526</v>
+        <v>0.6308006922048102</v>
       </c>
       <c r="G5">
-        <v>0.7596816766817016</v>
+        <v>0.7625512446299131</v>
       </c>
       <c r="H5">
-        <v>0.7596816766817016</v>
+        <v>0.7625512446299131</v>
       </c>
       <c r="I5">
-        <v>0.7609857529017666</v>
+        <v>0.763548415074074</v>
       </c>
       <c r="J5">
-        <v>0.7609857529017666</v>
+        <v>0.763548415074074</v>
       </c>
       <c r="K5">
-        <v>0.7612976346661103</v>
+        <v>0.763548415074074</v>
       </c>
       <c r="L5">
-        <v>0.7698752951878227</v>
+        <v>0.7718556478219422</v>
       </c>
       <c r="M5">
-        <v>0.7890500310944659</v>
+        <v>0.7908131017109034</v>
       </c>
       <c r="N5">
-        <v>0.7907440150813108</v>
+        <v>0.7922021353616562</v>
       </c>
       <c r="O5">
-        <v>0.8698211358742149</v>
+        <v>0.8713623926415182</v>
       </c>
       <c r="P5">
-        <v>0.8698211358742149</v>
+        <v>0.8713623926415182</v>
       </c>
       <c r="Q5">
-        <v>0.871689017032474</v>
+        <v>0.872926195581353</v>
       </c>
       <c r="R5">
-        <v>0.8959866533768089</v>
+        <v>0.8970322419416675</v>
       </c>
       <c r="S5">
-        <v>0.8959866533768089</v>
+        <v>0.8970322419416675</v>
       </c>
       <c r="T5">
-        <v>0.9501153016620045</v>
+        <v>0.9511189067738045</v>
       </c>
       <c r="U5">
-        <v>0.9501153016620045</v>
+        <v>0.9511189067738045</v>
       </c>
       <c r="V5">
-        <v>0.9501153016620045</v>
+        <v>0.9511189067738045</v>
       </c>
       <c r="W5">
-        <v>0.9501153016620045</v>
+        <v>0.9511189067738045</v>
       </c>
       <c r="X5">
-        <v>0.9501153016620045</v>
+        <v>0.9511189067738045</v>
       </c>
       <c r="Y5">
-        <v>0.9501153016620045</v>
+        <v>0.9511189067738045</v>
       </c>
       <c r="Z5">
-        <v>0.9501153016620045</v>
+        <v>0.9511189067738045</v>
       </c>
       <c r="AA5">
-        <v>0.9501153016620045</v>
+        <v>0.9511189067738045</v>
       </c>
       <c r="AB5">
-        <v>0.951890986193348</v>
+        <v>0.9525900507082584</v>
       </c>
       <c r="AC5">
-        <v>0.951890986193348</v>
+        <v>0.9525900507082584</v>
       </c>
       <c r="AD5">
-        <v>0.9714325201970969</v>
+        <v>0.9719161422360404</v>
       </c>
       <c r="AE5">
-        <v>0.978827802592761</v>
+        <v>0.9790350670727738</v>
       </c>
       <c r="AF5">
-        <v>0.978827802592761</v>
+        <v>0.9790350670727738</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -2355,94 +2355,94 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08802743037407133</v>
+        <v>0.0854157778322381</v>
       </c>
       <c r="F6">
-        <v>0.1824133440181695</v>
+        <v>0.1765874347099342</v>
       </c>
       <c r="G6">
-        <v>0.3737625232114032</v>
+        <v>0.3555329842994829</v>
       </c>
       <c r="H6">
-        <v>0.6906790329758252</v>
+        <v>0.6481456359534119</v>
       </c>
       <c r="I6">
-        <v>0.6906790329758252</v>
+        <v>0.6533892685479212</v>
       </c>
       <c r="J6">
-        <v>0.6953143738292256</v>
+        <v>0.6633161663682192</v>
       </c>
       <c r="K6">
-        <v>0.6953143738292256</v>
+        <v>0.6633161663682192</v>
       </c>
       <c r="L6">
-        <v>0.6953143738292256</v>
+        <v>0.6633161663682192</v>
       </c>
       <c r="M6">
-        <v>0.6953143738292256</v>
+        <v>0.6633161663682192</v>
       </c>
       <c r="N6">
-        <v>0.7090081036242731</v>
+        <v>0.6814429742740894</v>
       </c>
       <c r="O6">
-        <v>0.7090081036242731</v>
+        <v>0.6814429742740894</v>
       </c>
       <c r="P6">
-        <v>0.8252801082967016</v>
+        <v>0.792426540279671</v>
       </c>
       <c r="Q6">
-        <v>0.8448453211824408</v>
+        <v>0.8158683808831628</v>
       </c>
       <c r="R6">
-        <v>0.8448453211824408</v>
+        <v>0.8158683808831628</v>
       </c>
       <c r="S6">
-        <v>0.8705262709214378</v>
+        <v>0.8448463596042364</v>
       </c>
       <c r="T6">
-        <v>0.8705262709214378</v>
+        <v>0.8449705185405016</v>
       </c>
       <c r="U6">
-        <v>0.9231326574080434</v>
+        <v>0.8983221647831869</v>
       </c>
       <c r="V6">
-        <v>0.9296028843005432</v>
+        <v>0.9099100533861516</v>
       </c>
       <c r="W6">
-        <v>0.9300965310413984</v>
+        <v>0.9160877724569403</v>
       </c>
       <c r="X6">
-        <v>0.9300965310413984</v>
+        <v>0.9160877724569403</v>
       </c>
       <c r="Y6">
-        <v>0.9300965310413984</v>
+        <v>0.9160877724569403</v>
       </c>
       <c r="Z6">
-        <v>0.9300965310413984</v>
+        <v>0.9160877724569403</v>
       </c>
       <c r="AA6">
-        <v>0.9300965310413984</v>
+        <v>0.9160877724569403</v>
       </c>
       <c r="AB6">
-        <v>0.9300965310413984</v>
+        <v>0.917392630296624</v>
       </c>
       <c r="AC6">
-        <v>0.9300965310413984</v>
+        <v>0.917392630296624</v>
       </c>
       <c r="AD6">
-        <v>0.9300965310413984</v>
+        <v>0.9192571941336789</v>
       </c>
       <c r="AE6">
-        <v>0.9414217162662132</v>
+        <v>0.9352399284482414</v>
       </c>
       <c r="AF6">
-        <v>0.9722250432302724</v>
+        <v>0.9688548280324475</v>
       </c>
       <c r="AG6">
-        <v>0.9722250432302724</v>
+        <v>0.9688548280324475</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9997283611927444</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3405484103261412</v>
+        <v>0.3681519126428766</v>
       </c>
       <c r="E7">
-        <v>0.3471201901831079</v>
+        <v>0.3691197395561305</v>
       </c>
       <c r="F7">
-        <v>0.594174350678092</v>
+        <v>0.6344812246262643</v>
       </c>
       <c r="G7">
-        <v>0.6576216180604985</v>
+        <v>0.6979796958487245</v>
       </c>
       <c r="H7">
-        <v>0.6576216180604985</v>
+        <v>0.6979796958487245</v>
       </c>
       <c r="I7">
-        <v>0.6576216180604985</v>
+        <v>0.6979796958487245</v>
       </c>
       <c r="J7">
-        <v>0.6576216180604985</v>
+        <v>0.6979796958487245</v>
       </c>
       <c r="K7">
-        <v>0.6817518488543558</v>
+        <v>0.7182518188291421</v>
       </c>
       <c r="L7">
-        <v>0.6874433302890103</v>
+        <v>0.7182518188291421</v>
       </c>
       <c r="M7">
-        <v>0.6999919981595238</v>
+        <v>0.7257908185746974</v>
       </c>
       <c r="N7">
-        <v>0.7575329610976865</v>
+        <v>0.7827957186920361</v>
       </c>
       <c r="O7">
-        <v>0.8447940865879788</v>
+        <v>0.8724758712637429</v>
       </c>
       <c r="P7">
-        <v>0.8447940865879788</v>
+        <v>0.8724758712637429</v>
       </c>
       <c r="Q7">
-        <v>0.873074246661963</v>
+        <v>0.8973105529669828</v>
       </c>
       <c r="R7">
-        <v>0.8895684420273112</v>
+        <v>0.9091873858833103</v>
       </c>
       <c r="S7">
-        <v>0.9126467672289154</v>
+        <v>0.9283030117979817</v>
       </c>
       <c r="T7">
-        <v>0.9575955420180663</v>
+        <v>0.9714636765077864</v>
       </c>
       <c r="U7">
-        <v>0.9575955420180663</v>
+        <v>0.9714636765077864</v>
       </c>
       <c r="V7">
-        <v>0.9575955420180663</v>
+        <v>0.9714636765077864</v>
       </c>
       <c r="W7">
-        <v>0.9757281810297546</v>
+        <v>0.9851418643017165</v>
       </c>
       <c r="X7">
-        <v>0.9757281810297546</v>
+        <v>0.9851418643017165</v>
       </c>
       <c r="Y7">
-        <v>0.9757281810297546</v>
+        <v>0.9851418643017165</v>
       </c>
       <c r="Z7">
-        <v>0.9757281810297546</v>
+        <v>0.9851418643017165</v>
       </c>
       <c r="AA7">
-        <v>0.9757281810297546</v>
+        <v>0.9851418643017165</v>
       </c>
       <c r="AB7">
-        <v>0.9757281810297546</v>
+        <v>0.9851418643017165</v>
       </c>
       <c r="AC7">
-        <v>0.9757281810297546</v>
+        <v>0.9851418643017165</v>
       </c>
       <c r="AD7">
-        <v>0.980794125408283</v>
+        <v>0.9851418643017165</v>
       </c>
       <c r="AE7">
-        <v>0.980794125408283</v>
+        <v>0.9851418643017165</v>
       </c>
       <c r="AF7">
-        <v>0.980794125408283</v>
+        <v>0.9851418643017165</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2688434842538285</v>
+        <v>0.2327716032096546</v>
       </c>
       <c r="E8">
-        <v>0.2870457237621828</v>
+        <v>0.2572598637021564</v>
       </c>
       <c r="F8">
-        <v>0.5809474747704009</v>
+        <v>0.5108549334071297</v>
       </c>
       <c r="G8">
-        <v>0.7321385833073178</v>
+        <v>0.645857192557639</v>
       </c>
       <c r="H8">
-        <v>0.7321385833073178</v>
+        <v>0.645857192557639</v>
       </c>
       <c r="I8">
-        <v>0.7321385833073178</v>
+        <v>0.645857192557639</v>
       </c>
       <c r="J8">
-        <v>0.7321385833073178</v>
+        <v>0.6472769087803659</v>
       </c>
       <c r="K8">
-        <v>0.7334866750072714</v>
+        <v>0.6577593409514055</v>
       </c>
       <c r="L8">
-        <v>0.7334866750072714</v>
+        <v>0.6577593409514055</v>
       </c>
       <c r="M8">
-        <v>0.7334866750072714</v>
+        <v>0.6666338432318422</v>
       </c>
       <c r="N8">
-        <v>0.7366908121729832</v>
+        <v>0.6786586526530256</v>
       </c>
       <c r="O8">
-        <v>0.8483990733562203</v>
+        <v>0.7808505918772729</v>
       </c>
       <c r="P8">
-        <v>0.8483990733562203</v>
+        <v>0.7808505918772729</v>
       </c>
       <c r="Q8">
-        <v>0.8577274915949076</v>
+        <v>0.7979646903135746</v>
       </c>
       <c r="R8">
-        <v>0.8931944305647095</v>
+        <v>0.8367999483183534</v>
       </c>
       <c r="S8">
-        <v>0.8931944305647095</v>
+        <v>0.8406257661043396</v>
       </c>
       <c r="T8">
-        <v>0.9578130407702627</v>
+        <v>0.9036861173771464</v>
       </c>
       <c r="U8">
-        <v>0.9578130407702627</v>
+        <v>0.9036861173771464</v>
       </c>
       <c r="V8">
-        <v>0.9578130407702627</v>
+        <v>0.9040990395891455</v>
       </c>
       <c r="W8">
-        <v>0.9631356807428612</v>
+        <v>0.9178843288013629</v>
       </c>
       <c r="X8">
-        <v>0.9631356807428612</v>
+        <v>0.9251835862329613</v>
       </c>
       <c r="Y8">
-        <v>0.9631356807428612</v>
+        <v>0.9251835862329613</v>
       </c>
       <c r="Z8">
-        <v>0.9631356807428612</v>
+        <v>0.9277570743525887</v>
       </c>
       <c r="AA8">
-        <v>0.9631356807428612</v>
+        <v>0.9329461926798766</v>
       </c>
       <c r="AB8">
-        <v>0.9631356807428612</v>
+        <v>0.9329461926798766</v>
       </c>
       <c r="AC8">
-        <v>0.9631356807428612</v>
+        <v>0.9329461926798766</v>
       </c>
       <c r="AD8">
-        <v>0.9713171107841733</v>
+        <v>0.949107141780964</v>
       </c>
       <c r="AE8">
-        <v>0.9831221463455493</v>
+        <v>0.9682793138400834</v>
       </c>
       <c r="AF8">
-        <v>0.9831221463455493</v>
+        <v>0.9682793138400834</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999998</v>
+        <v>0.9916670072133207</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,94 +2682,94 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08341523305446019</v>
+        <v>0.07982759441955263</v>
       </c>
       <c r="E9">
-        <v>0.2031743601354749</v>
+        <v>0.1903068581431981</v>
       </c>
       <c r="F9">
-        <v>0.4578284514399398</v>
+        <v>0.4145536733334966</v>
       </c>
       <c r="G9">
-        <v>0.7447764232840502</v>
+        <v>0.6660364623609369</v>
       </c>
       <c r="H9">
-        <v>0.7447764232840502</v>
+        <v>0.6686325075593842</v>
       </c>
       <c r="I9">
-        <v>0.759086656235359</v>
+        <v>0.6901784107305127</v>
       </c>
       <c r="J9">
-        <v>0.759086656235359</v>
+        <v>0.6913207361089526</v>
       </c>
       <c r="K9">
-        <v>0.759086656235359</v>
+        <v>0.6913207361089526</v>
       </c>
       <c r="L9">
-        <v>0.759086656235359</v>
+        <v>0.6913207361089526</v>
       </c>
       <c r="M9">
-        <v>0.759086656235359</v>
+        <v>0.6928827347649676</v>
       </c>
       <c r="N9">
-        <v>0.759086656235359</v>
+        <v>0.6928827347649676</v>
       </c>
       <c r="O9">
-        <v>0.8597643441985952</v>
+        <v>0.7872691174875571</v>
       </c>
       <c r="P9">
-        <v>0.8597643441985952</v>
+        <v>0.7915305993805581</v>
       </c>
       <c r="Q9">
-        <v>0.8597643441985952</v>
+        <v>0.795644231376921</v>
       </c>
       <c r="R9">
-        <v>0.887669277442026</v>
+        <v>0.8286556164069256</v>
       </c>
       <c r="S9">
-        <v>0.887669277442026</v>
+        <v>0.8289355693786891</v>
       </c>
       <c r="T9">
-        <v>0.9539336038664836</v>
+        <v>0.8942984529473872</v>
       </c>
       <c r="U9">
-        <v>0.9539336038664836</v>
+        <v>0.8942984529473872</v>
       </c>
       <c r="V9">
-        <v>0.9539336038664836</v>
+        <v>0.9022993594775314</v>
       </c>
       <c r="W9">
-        <v>0.9539336038664836</v>
+        <v>0.9104595710306238</v>
       </c>
       <c r="X9">
-        <v>0.954671417161425</v>
+        <v>0.9205587833584601</v>
       </c>
       <c r="Y9">
-        <v>0.954671417161425</v>
+        <v>0.9207605998567667</v>
       </c>
       <c r="Z9">
-        <v>0.954671417161425</v>
+        <v>0.9219494404382371</v>
       </c>
       <c r="AA9">
-        <v>0.954671417161425</v>
+        <v>0.9228461827606457</v>
       </c>
       <c r="AB9">
-        <v>0.954671417161425</v>
+        <v>0.9228461827606457</v>
       </c>
       <c r="AC9">
-        <v>0.954671417161425</v>
+        <v>0.9238630097520975</v>
       </c>
       <c r="AD9">
-        <v>0.9599524239771847</v>
+        <v>0.9377938551262682</v>
       </c>
       <c r="AE9">
-        <v>0.9740730147683592</v>
+        <v>0.9591798181221832</v>
       </c>
       <c r="AF9">
-        <v>0.9740730147683592</v>
+        <v>0.9591798181221832</v>
       </c>
       <c r="AG9">
-        <v>0.9890788164178013</v>
+        <v>0.9813123491790822</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2792,94 +2792,94 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05435782485181691</v>
+        <v>0.05496710536619327</v>
       </c>
       <c r="E10">
-        <v>0.2067426037987774</v>
+        <v>0.1913554315433213</v>
       </c>
       <c r="F10">
-        <v>0.4512180178998099</v>
+        <v>0.4042342700362901</v>
       </c>
       <c r="G10">
-        <v>0.7544047121972346</v>
+        <v>0.665878717469055</v>
       </c>
       <c r="H10">
-        <v>0.7544047121972346</v>
+        <v>0.6670999841851364</v>
       </c>
       <c r="I10">
-        <v>0.7804259301254411</v>
+        <v>0.6985306943765841</v>
       </c>
       <c r="J10">
-        <v>0.7804259301254411</v>
+        <v>0.7057491169558943</v>
       </c>
       <c r="K10">
-        <v>0.7804259301254411</v>
+        <v>0.7057491169558943</v>
       </c>
       <c r="L10">
-        <v>0.7804259301254411</v>
+        <v>0.7057491169558943</v>
       </c>
       <c r="M10">
-        <v>0.7804259301254411</v>
+        <v>0.7111548544109011</v>
       </c>
       <c r="N10">
-        <v>0.7804259301254411</v>
+        <v>0.7111548544109011</v>
       </c>
       <c r="O10">
-        <v>0.8673336175001475</v>
+        <v>0.7931578864597643</v>
       </c>
       <c r="P10">
-        <v>0.8673336175001475</v>
+        <v>0.7954769544840165</v>
       </c>
       <c r="Q10">
-        <v>0.8673336175001475</v>
+        <v>0.8002690365329982</v>
       </c>
       <c r="R10">
-        <v>0.9008095165763157</v>
+        <v>0.8378916073756927</v>
       </c>
       <c r="S10">
-        <v>0.9008095165763157</v>
+        <v>0.8384561958499143</v>
       </c>
       <c r="T10">
-        <v>0.9520043531546306</v>
+        <v>0.8907961220997469</v>
       </c>
       <c r="U10">
-        <v>0.9520043531546306</v>
+        <v>0.8913544393072795</v>
       </c>
       <c r="V10">
-        <v>0.9520043531546306</v>
+        <v>0.8979475524674146</v>
       </c>
       <c r="W10">
-        <v>0.9546086547021282</v>
+        <v>0.9099281640921524</v>
       </c>
       <c r="X10">
-        <v>0.9546086547021282</v>
+        <v>0.9157909337586078</v>
       </c>
       <c r="Y10">
-        <v>0.9546086547021282</v>
+        <v>0.9157909337586078</v>
       </c>
       <c r="Z10">
-        <v>0.9546086547021282</v>
+        <v>0.9186798640526914</v>
       </c>
       <c r="AA10">
-        <v>0.9546086547021282</v>
+        <v>0.9197120581783922</v>
       </c>
       <c r="AB10">
-        <v>0.9546086547021282</v>
+        <v>0.9197278666843333</v>
       </c>
       <c r="AC10">
-        <v>0.9546086547021282</v>
+        <v>0.922590577842238</v>
       </c>
       <c r="AD10">
-        <v>0.958576003430729</v>
+        <v>0.935703336910837</v>
       </c>
       <c r="AE10">
-        <v>0.9715628773798849</v>
+        <v>0.9563077166400129</v>
       </c>
       <c r="AF10">
-        <v>0.9715628773798849</v>
+        <v>0.9567451606749889</v>
       </c>
       <c r="AG10">
-        <v>0.9905040912489295</v>
+        <v>0.9822952171302832</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2315835354771753</v>
+        <v>0.208603462038011</v>
       </c>
       <c r="E11">
-        <v>0.2663580977350567</v>
+        <v>0.2460361512910657</v>
       </c>
       <c r="F11">
-        <v>0.4483085205239498</v>
+        <v>0.4114721798751674</v>
       </c>
       <c r="G11">
-        <v>0.5788993042277223</v>
+        <v>0.5322391622854399</v>
       </c>
       <c r="H11">
-        <v>0.5836561857204585</v>
+        <v>0.5435645581070266</v>
       </c>
       <c r="I11">
-        <v>0.5836561857204585</v>
+        <v>0.5435645581070266</v>
       </c>
       <c r="J11">
-        <v>0.5836561857204585</v>
+        <v>0.5435645581070266</v>
       </c>
       <c r="K11">
-        <v>0.5836561857204585</v>
+        <v>0.5446075902119731</v>
       </c>
       <c r="L11">
-        <v>0.5836561857204585</v>
+        <v>0.5446075902119731</v>
       </c>
       <c r="M11">
-        <v>0.6259053878948174</v>
+        <v>0.5885412020086718</v>
       </c>
       <c r="N11">
-        <v>0.6259053878948174</v>
+        <v>0.5914506183914249</v>
       </c>
       <c r="O11">
-        <v>0.801555712055163</v>
+        <v>0.7514072588499234</v>
       </c>
       <c r="P11">
-        <v>0.8070274743222484</v>
+        <v>0.7633544083069916</v>
       </c>
       <c r="Q11">
-        <v>0.8128270434780082</v>
+        <v>0.7755866614234143</v>
       </c>
       <c r="R11">
-        <v>0.8380935988275751</v>
+        <v>0.8047499467792825</v>
       </c>
       <c r="S11">
-        <v>0.8380935988275751</v>
+        <v>0.8047499467792825</v>
       </c>
       <c r="T11">
-        <v>0.8865577172979502</v>
+        <v>0.8540888610262793</v>
       </c>
       <c r="U11">
-        <v>0.8865577172979502</v>
+        <v>0.8540888610262793</v>
       </c>
       <c r="V11">
-        <v>0.8865577172979502</v>
+        <v>0.8540888610262793</v>
       </c>
       <c r="W11">
-        <v>0.9049436790799248</v>
+        <v>0.8772678840849623</v>
       </c>
       <c r="X11">
-        <v>0.916002381716911</v>
+        <v>0.8940741661566485</v>
       </c>
       <c r="Y11">
-        <v>0.916002381716911</v>
+        <v>0.8940741661566485</v>
       </c>
       <c r="Z11">
-        <v>0.916002381716911</v>
+        <v>0.8940741661566485</v>
       </c>
       <c r="AA11">
-        <v>0.916002381716911</v>
+        <v>0.8981919438274391</v>
       </c>
       <c r="AB11">
-        <v>0.916002381716911</v>
+        <v>0.8981919438274391</v>
       </c>
       <c r="AC11">
-        <v>0.916002381716911</v>
+        <v>0.8981919438274391</v>
       </c>
       <c r="AD11">
-        <v>0.9208019278916987</v>
+        <v>0.9095544464256017</v>
       </c>
       <c r="AE11">
-        <v>0.9424939006853177</v>
+        <v>0.935608808196957</v>
       </c>
       <c r="AF11">
-        <v>0.9424939006853177</v>
+        <v>0.935608808196957</v>
       </c>
       <c r="AG11">
-        <v>0.9745229628295053</v>
+        <v>0.9706536521782492</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3066,16 +3066,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5277462035933375</v>
+        <v>0.5079389192527135</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7004420173061794</v>
+        <v>0.6372005532526348</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6549701440097397</v>
+        <v>0.6595651744228981</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6282766920081526</v>
+        <v>0.6308006922048102</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6906790329758252</v>
+        <v>0.6481456359534119</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.594174350678092</v>
+        <v>0.6344812246262643</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5809474747704009</v>
+        <v>0.5108549334071297</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7447764232840502</v>
+        <v>0.6660364623609369</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7544047121972346</v>
+        <v>0.665878717469055</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5788993042277223</v>
+        <v>0.5322391622854399</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7676367043434791</v>
+        <v>0.7364882954152645</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -3571,16 +3571,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7004420173061794</v>
+        <v>0.7444066676799631</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7006532943175738</v>
+        <v>0.705063483680656</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7596816766817016</v>
+        <v>0.7625512446299131</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3694,16 +3694,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.792426540279671</v>
+      </c>
+      <c r="G6">
         <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7090081036242731</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -3735,16 +3735,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7575329610976865</v>
+        <v>0.7182518188291421</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>57</v>
@@ -3776,16 +3776,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7321385833073178</v>
+        <v>0.7808505918772729</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>57</v>
@@ -3817,16 +3817,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7447764232840502</v>
+        <v>0.7872691174875571</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>57</v>
@@ -3858,16 +3858,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7544047121972346</v>
+        <v>0.7057491169558943</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>57</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.801555712055163</v>
+        <v>0.7514072588499234</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -3994,16 +3994,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8089452927001018</v>
+        <v>0.8814881645255582</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8648865848236172</v>
+        <v>0.8180589348311632</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8251000164718314</v>
+        <v>0.8276701510082137</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8698211358742149</v>
+        <v>0.8713623926415182</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -4158,16 +4158,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8252801082967016</v>
+        <v>0.8158683808831628</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8447940865879788</v>
+        <v>0.8724758712637429</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -4240,16 +4240,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8483990733562203</v>
+        <v>0.8367999483183534</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>57</v>
@@ -4281,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8597643441985952</v>
+        <v>0.8286556164069256</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>57</v>
@@ -4322,16 +4322,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8673336175001475</v>
+        <v>0.8002690365329982</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>57</v>
@@ -4363,16 +4363,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.801555712055163</v>
+        <v>0.8047499467792825</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>57</v>
@@ -4458,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9063100289834335</v>
+        <v>0.9232334682538695</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -4499,16 +4499,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9003914925235751</v>
+      </c>
+      <c r="G3">
         <v>19</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9329744045940477</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.939350164044623</v>
+        <v>0.9411649393506706</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9501153016620045</v>
+        <v>0.9511189067738045</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -4622,16 +4622,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9231326574080434</v>
+        <v>0.9099100533861516</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9126467672289154</v>
+        <v>0.9091873858833103</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>57</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9578130407702627</v>
+        <v>0.9036861173771464</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4745,16 +4745,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9539336038664836</v>
+        <v>0.9022993594775314</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>57</v>
@@ -4786,16 +4786,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9008095165763157</v>
+        <v>0.9099281640921524</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>57</v>
@@ -4827,16 +4827,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9049436790799248</v>
+        <v>0.9095544464256017</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H11">
         <v>57</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/57_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/57_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>50%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,25 +689,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09480501419375219</v>
+        <v>0.1040043358632571</v>
       </c>
       <c r="E2">
-        <v>0.0531709906540305</v>
+        <v>0.03794770698806239</v>
       </c>
       <c r="F2">
-        <v>0.2172872960455859</v>
+        <v>0.2983349805667274</v>
       </c>
       <c r="G2">
-        <v>0.1295366916849824</v>
+        <v>0.1591096880534501</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01313892667436239</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0126050398631137</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.02775357640481333</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.188190759894624</v>
+        <v>0.2521703554196036</v>
       </c>
       <c r="P2">
-        <v>0.01164855098112801</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.04005033702054665</v>
+        <v>0.01713045047572648</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.09330098110861902</v>
+        <v>0.101618033822911</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.005253850563421868</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.001246551012101559</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -767,22 +767,22 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.03524490215278785</v>
+        <v>0.009506137458258634</v>
       </c>
       <c r="AE2">
-        <v>0.02822974159283172</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0003275636278018614</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.04197133592148133</v>
+        <v>0.02017831135200314</v>
       </c>
       <c r="AH2">
-        <v>0.002286077357051458</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.003951813246964041</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,22 +799,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3188831965383863</v>
+        <v>0.4461398543608296</v>
       </c>
       <c r="E3">
-        <v>0.02844210375607425</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2898752529581742</v>
+        <v>0.401525902701329</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01215112654926533</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008355765426002675</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -823,70 +823,70 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01628701729470299</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.009465736329467057</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0609464688278903</v>
+        <v>0.04943552854519939</v>
       </c>
       <c r="O3">
-        <v>0.07365226715120013</v>
+        <v>0.06897693004524208</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.002090677827896213</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.005919977653343575</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.02501484844263932</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.04699343708907918</v>
+        <v>0.02797589347050073</v>
       </c>
       <c r="U3">
-        <v>0.002313616679453514</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.004589110358415954</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.003496211821963503</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.004538895306292882</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.003503541330231741</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004889375637951402</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.03266955300043368</v>
+        <v>0.005945890876899096</v>
       </c>
       <c r="AE3">
-        <v>0.001602571700131267</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02383026127319012</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.02048898704781455</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3104794710926247</v>
+        <v>0.3760507012595428</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3490857033302734</v>
+        <v>0.4268462891085026</v>
       </c>
       <c r="G4">
-        <v>0.04549830925775793</v>
+        <v>0.02740559646279967</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01313154555204794</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -933,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.007357789252833561</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.01102787151197696</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.09108946101069923</v>
+        <v>0.08739149044349742</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02160971171145868</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.006819930441271998</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.08506514618972613</v>
+        <v>0.07946508594914455</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.02682832516129007</v>
+        <v>0.002840836776512903</v>
       </c>
       <c r="AE4">
-        <v>0.0005318676059866869</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.009933515613381592</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.02154135226867113</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.287878093342919</v>
+        <v>0.3408455164692351</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3429225988618912</v>
+        <v>0.4121560538793759</v>
       </c>
       <c r="G5">
-        <v>0.1317505524251029</v>
+        <v>0.1385812079355555</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0009971704441609282</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1043,31 +1043,31 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.008307232747868197</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.01895745388896117</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.00138903365075282</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.07916025727986202</v>
+        <v>0.07045011702998914</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001563802939834849</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.02410604636031455</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.05408666483213694</v>
+        <v>0.03796710468584429</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1091,22 +1091,22 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001471143934453904</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01932609152778203</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.007118924836733373</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.02096493292722629</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0854157778322381</v>
+        <v>0.08765313031307989</v>
       </c>
       <c r="F6">
-        <v>0.09117165687769607</v>
+        <v>0.09650987318434735</v>
       </c>
       <c r="G6">
-        <v>0.1789455495895487</v>
+        <v>0.2315701815090231</v>
       </c>
       <c r="H6">
-        <v>0.292612651653929</v>
+        <v>0.4064731438464168</v>
       </c>
       <c r="I6">
-        <v>0.005243632594509323</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.009926897820297976</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.01812680790587019</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1109835660055815</v>
+        <v>0.1269950490452026</v>
       </c>
       <c r="Q6">
-        <v>0.02344184060349183</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0289779787210735</v>
+        <v>0.0008106044364682049</v>
       </c>
       <c r="T6">
-        <v>0.0001241589362653242</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.05335164624268526</v>
+        <v>0.03831509408327968</v>
       </c>
       <c r="V6">
-        <v>0.01158788860296472</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.006177719070788731</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1201,28 +1201,28 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001304857839683709</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001864563837054857</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0159827343145625</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.03361489958420608</v>
+        <v>0.007945572957321335</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0308735331602969</v>
+        <v>0.003727350624861294</v>
       </c>
       <c r="AI6">
-        <v>0.0002716388072556186</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1239,16 +1239,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3681519126428766</v>
+        <v>0.4561267446306682</v>
       </c>
       <c r="E7">
-        <v>0.0009678269132538794</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2653614850701339</v>
+        <v>0.3207768448916268</v>
       </c>
       <c r="G7">
-        <v>0.06349847122246019</v>
+        <v>0.05497253479701198</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1260,34 +1260,34 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.02027212298041754</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.007538999745555226</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.05700490011733874</v>
+        <v>0.04642208687320563</v>
       </c>
       <c r="O7">
-        <v>0.08968015257170679</v>
+        <v>0.08944741761732383</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.02483468170323988</v>
+        <v>0.004061762670351855</v>
       </c>
       <c r="R7">
-        <v>0.0118768329163275</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.01911562591467142</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.04316066470980471</v>
+        <v>0.02819260851981173</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.01367818779393003</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.01485813569828397</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1349,16 +1349,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2327716032096546</v>
+        <v>0.3139283038710467</v>
       </c>
       <c r="E8">
-        <v>0.02448826049250178</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2535950697049734</v>
+        <v>0.3461409297175542</v>
       </c>
       <c r="G8">
-        <v>0.1350022591505093</v>
+        <v>0.1626851234839715</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1367,58 +1367,58 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001419716222726965</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.01048243217103961</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.008874502280436668</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.01202480942118342</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1021919392242473</v>
+        <v>0.1119295703715017</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.01711409843630174</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.03883525800477875</v>
+        <v>0.01392066933391538</v>
       </c>
       <c r="S8">
-        <v>0.003825817785986267</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.06306035127280686</v>
+        <v>0.0513954032220106</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.0004129222119990951</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.01378528921221744</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.007299257431598268</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.002573488119627424</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.005189118327287886</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1427,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.0161609491010875</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.01917217205911931</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.02338769337323729</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.008332992786679006</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1459,25 +1459,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07982759441955263</v>
+        <v>0.07689036382038421</v>
       </c>
       <c r="E9">
-        <v>0.1104792637236455</v>
+        <v>0.1240695531047664</v>
       </c>
       <c r="F9">
-        <v>0.2242468151902985</v>
+        <v>0.2991810875473365</v>
       </c>
       <c r="G9">
-        <v>0.2514827890274403</v>
+        <v>0.341102822780054</v>
       </c>
       <c r="H9">
-        <v>0.00259604519844726</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02154590317112844</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.001142325378439933</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1486,70 +1486,70 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.001561998656015001</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.09438638272258949</v>
+        <v>0.09929931722144773</v>
       </c>
       <c r="P9">
-        <v>0.004261481893001007</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.004113631996362843</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.03301138503000469</v>
+        <v>0.004830640662930384</v>
       </c>
       <c r="S9">
-        <v>0.0002799529717634724</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.0653628835686981</v>
+        <v>0.05462621486308092</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.008000906530144174</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.008160211553092416</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.01009921232783632</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.0002018164983066732</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.001188840581470357</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0008967423224085899</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.001016826991451748</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.01393084537417074</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.02138596299591495</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.02213253105689891</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.01868765082091799</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1569,25 +1569,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05496710536619327</v>
+        <v>0.03970642350341787</v>
       </c>
       <c r="E10">
-        <v>0.1363883261771281</v>
+        <v>0.1690492110493249</v>
       </c>
       <c r="F10">
-        <v>0.2128788384929688</v>
+        <v>0.2905592545638858</v>
       </c>
       <c r="G10">
-        <v>0.2616444474327649</v>
+        <v>0.3680265257964456</v>
       </c>
       <c r="H10">
-        <v>0.001221266716081308</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03143071019144775</v>
+        <v>0.002317362883059574</v>
       </c>
       <c r="J10">
-        <v>0.007218422579310105</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1596,70 +1596,70 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.005405737455006783</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.08200303204886315</v>
+        <v>0.0826547124899379</v>
       </c>
       <c r="P10">
-        <v>0.00231906802425214</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.004792082048981719</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.03762257084269453</v>
+        <v>0.01215352732215281</v>
       </c>
       <c r="S10">
-        <v>0.0005645884742215551</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.05233992624983266</v>
+        <v>0.03553298239177542</v>
       </c>
       <c r="U10">
-        <v>0.0005583172075326375</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.006593113160135089</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.01198061162473768</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.005862769666455422</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.002888930294083655</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.00103219412570074</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1.580850594108223E-05</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.002862711157904658</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.013112759068599</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.02060437972917598</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.0004374440349760093</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.0255500564552943</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.0177047828697171</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1679,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.208603462038011</v>
+        <v>0.3047941719141122</v>
       </c>
       <c r="E11">
-        <v>0.03743268925305464</v>
+        <v>0.01436804476932909</v>
       </c>
       <c r="F11">
-        <v>0.1654360285841017</v>
+        <v>0.2315518168506731</v>
       </c>
       <c r="G11">
-        <v>0.1207669824102725</v>
+        <v>0.1557616695466419</v>
       </c>
       <c r="H11">
-        <v>0.01132539582158674</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1700,34 +1700,34 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.001043032104946492</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.04393361179669868</v>
+        <v>0.02539818575952436</v>
       </c>
       <c r="N11">
-        <v>0.00290941638275313</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.1599566404584986</v>
+        <v>0.222254917347618</v>
       </c>
       <c r="P11">
-        <v>0.01194714945706822</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.01223225311642264</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.02916328535586821</v>
+        <v>0.000337314472439836</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.04933891424699683</v>
+        <v>0.03456938380428932</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0231790230586829</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.01680628207168627</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.004117777670790593</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1757,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.01136250259816259</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.02605436177135534</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.03504484398129212</v>
+        <v>0.01031657825307858</v>
       </c>
       <c r="AH11">
-        <v>0.02934634782175069</v>
+        <v>0.000647917282293451</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1912,97 +1912,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09480501419375219</v>
+        <v>0.1040043358632571</v>
       </c>
       <c r="E2">
-        <v>0.1479760048477827</v>
+        <v>0.1419520428513195</v>
       </c>
       <c r="F2">
-        <v>0.3652633008933687</v>
+        <v>0.4402870234180469</v>
       </c>
       <c r="G2">
-        <v>0.4947999925783511</v>
+        <v>0.599396711471497</v>
       </c>
       <c r="H2">
-        <v>0.4947999925783511</v>
+        <v>0.599396711471497</v>
       </c>
       <c r="I2">
-        <v>0.5079389192527135</v>
+        <v>0.599396711471497</v>
       </c>
       <c r="J2">
-        <v>0.5205439591158272</v>
+        <v>0.599396711471497</v>
       </c>
       <c r="K2">
-        <v>0.5205439591158272</v>
+        <v>0.599396711471497</v>
       </c>
       <c r="L2">
-        <v>0.5205439591158272</v>
+        <v>0.599396711471497</v>
       </c>
       <c r="M2">
-        <v>0.5482975355206405</v>
+        <v>0.599396711471497</v>
       </c>
       <c r="N2">
-        <v>0.5482975355206405</v>
+        <v>0.599396711471497</v>
       </c>
       <c r="O2">
-        <v>0.7364882954152645</v>
+        <v>0.8515670668911006</v>
       </c>
       <c r="P2">
-        <v>0.7481368463963926</v>
+        <v>0.8515670668911006</v>
       </c>
       <c r="Q2">
-        <v>0.7481368463963926</v>
+        <v>0.8515670668911006</v>
       </c>
       <c r="R2">
-        <v>0.7881871834169392</v>
+        <v>0.8686975173668271</v>
       </c>
       <c r="S2">
-        <v>0.7881871834169392</v>
+        <v>0.8686975173668271</v>
       </c>
       <c r="T2">
-        <v>0.8814881645255582</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="U2">
-        <v>0.8814881645255582</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="V2">
-        <v>0.8814881645255582</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="W2">
-        <v>0.8814881645255582</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="X2">
-        <v>0.8814881645255582</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="Y2">
-        <v>0.8814881645255582</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="Z2">
-        <v>0.8867420150889801</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="AA2">
-        <v>0.8879885661010817</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="AB2">
-        <v>0.8879885661010817</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="AC2">
-        <v>0.8879885661010817</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="AD2">
-        <v>0.9232334682538695</v>
+        <v>0.9798216886479968</v>
       </c>
       <c r="AE2">
-        <v>0.9514632098467013</v>
+        <v>0.9798216886479968</v>
       </c>
       <c r="AF2">
-        <v>0.9517907734745031</v>
+        <v>0.9798216886479968</v>
       </c>
       <c r="AG2">
-        <v>0.9937621093959844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.9960481867530359</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
         <v>0.9999999999999999</v>
@@ -2022,91 +2022,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3188831965383863</v>
+        <v>0.4461398543608296</v>
       </c>
       <c r="E3">
-        <v>0.3473253002944605</v>
+        <v>0.4461398543608296</v>
       </c>
       <c r="F3">
-        <v>0.6372005532526348</v>
+        <v>0.8476657570621586</v>
       </c>
       <c r="G3">
-        <v>0.6372005532526348</v>
+        <v>0.8476657570621586</v>
       </c>
       <c r="H3">
-        <v>0.6493516798019001</v>
+        <v>0.8476657570621586</v>
       </c>
       <c r="I3">
-        <v>0.6577074452279028</v>
+        <v>0.8476657570621586</v>
       </c>
       <c r="J3">
-        <v>0.6577074452279028</v>
+        <v>0.8476657570621586</v>
       </c>
       <c r="K3">
-        <v>0.6577074452279028</v>
+        <v>0.8476657570621586</v>
       </c>
       <c r="L3">
-        <v>0.6739944625226058</v>
+        <v>0.8476657570621586</v>
       </c>
       <c r="M3">
-        <v>0.6834601988520728</v>
+        <v>0.8476657570621586</v>
       </c>
       <c r="N3">
-        <v>0.7444066676799631</v>
+        <v>0.897101285607358</v>
       </c>
       <c r="O3">
-        <v>0.8180589348311632</v>
+        <v>0.9660782156526001</v>
       </c>
       <c r="P3">
-        <v>0.8180589348311632</v>
+        <v>0.9660782156526001</v>
       </c>
       <c r="Q3">
-        <v>0.8201496126590594</v>
+        <v>0.9660782156526001</v>
       </c>
       <c r="R3">
-        <v>0.826069590312403</v>
+        <v>0.9660782156526001</v>
       </c>
       <c r="S3">
-        <v>0.8510844387550424</v>
+        <v>0.9660782156526001</v>
       </c>
       <c r="T3">
-        <v>0.8980778758441216</v>
+        <v>0.9940541091231009</v>
       </c>
       <c r="U3">
-        <v>0.9003914925235751</v>
+        <v>0.9940541091231009</v>
       </c>
       <c r="V3">
-        <v>0.9003914925235751</v>
+        <v>0.9940541091231009</v>
       </c>
       <c r="W3">
-        <v>0.904980602881991</v>
+        <v>0.9940541091231009</v>
       </c>
       <c r="X3">
-        <v>0.904980602881991</v>
+        <v>0.9940541091231009</v>
       </c>
       <c r="Y3">
-        <v>0.9084768147039545</v>
+        <v>0.9940541091231009</v>
       </c>
       <c r="Z3">
-        <v>0.9130157100102474</v>
+        <v>0.9940541091231009</v>
       </c>
       <c r="AA3">
-        <v>0.9130157100102474</v>
+        <v>0.9940541091231009</v>
       </c>
       <c r="AB3">
-        <v>0.9165192513404792</v>
+        <v>0.9940541091231009</v>
       </c>
       <c r="AC3">
-        <v>0.9214086269784306</v>
+        <v>0.9940541091231009</v>
       </c>
       <c r="AD3">
-        <v>0.9540781799788643</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9556807516789956</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9795110129521857</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -2132,91 +2132,91 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3104794710926247</v>
+        <v>0.3760507012595428</v>
       </c>
       <c r="E4">
-        <v>0.3104794710926247</v>
+        <v>0.3760507012595428</v>
       </c>
       <c r="F4">
-        <v>0.6595651744228981</v>
+        <v>0.8028969903680454</v>
       </c>
       <c r="G4">
-        <v>0.705063483680656</v>
+        <v>0.8303025868308451</v>
       </c>
       <c r="H4">
-        <v>0.705063483680656</v>
+        <v>0.8303025868308451</v>
       </c>
       <c r="I4">
-        <v>0.718195029232704</v>
+        <v>0.8303025868308451</v>
       </c>
       <c r="J4">
-        <v>0.718195029232704</v>
+        <v>0.8303025868308451</v>
       </c>
       <c r="K4">
-        <v>0.718195029232704</v>
+        <v>0.8303025868308451</v>
       </c>
       <c r="L4">
-        <v>0.7255528184855375</v>
+        <v>0.8303025868308451</v>
       </c>
       <c r="M4">
-        <v>0.7255528184855375</v>
+        <v>0.8303025868308451</v>
       </c>
       <c r="N4">
-        <v>0.7365806899975145</v>
+        <v>0.8303025868308451</v>
       </c>
       <c r="O4">
-        <v>0.8276701510082137</v>
+        <v>0.9176940772743425</v>
       </c>
       <c r="P4">
-        <v>0.8276701510082137</v>
+        <v>0.9176940772743425</v>
       </c>
       <c r="Q4">
-        <v>0.8276701510082137</v>
+        <v>0.9176940772743425</v>
       </c>
       <c r="R4">
-        <v>0.8492798627196724</v>
+        <v>0.9176940772743425</v>
       </c>
       <c r="S4">
-        <v>0.8560997931609444</v>
+        <v>0.9176940772743425</v>
       </c>
       <c r="T4">
-        <v>0.9411649393506706</v>
+        <v>0.9971591632234871</v>
       </c>
       <c r="U4">
-        <v>0.9411649393506706</v>
+        <v>0.9971591632234871</v>
       </c>
       <c r="V4">
-        <v>0.9411649393506706</v>
+        <v>0.9971591632234871</v>
       </c>
       <c r="W4">
-        <v>0.9411649393506706</v>
+        <v>0.9971591632234871</v>
       </c>
       <c r="X4">
-        <v>0.9411649393506706</v>
+        <v>0.9971591632234871</v>
       </c>
       <c r="Y4">
-        <v>0.9411649393506706</v>
+        <v>0.9971591632234871</v>
       </c>
       <c r="Z4">
-        <v>0.9411649393506706</v>
+        <v>0.9971591632234871</v>
       </c>
       <c r="AA4">
-        <v>0.9411649393506706</v>
+        <v>0.9971591632234871</v>
       </c>
       <c r="AB4">
-        <v>0.9411649393506706</v>
+        <v>0.9971591632234871</v>
       </c>
       <c r="AC4">
-        <v>0.9411649393506706</v>
+        <v>0.9971591632234871</v>
       </c>
       <c r="AD4">
-        <v>0.9679932645119607</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9685251321179473</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.978458647731329</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -2242,91 +2242,91 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.287878093342919</v>
+        <v>0.3408455164692351</v>
       </c>
       <c r="E5">
-        <v>0.287878093342919</v>
+        <v>0.3408455164692351</v>
       </c>
       <c r="F5">
-        <v>0.6308006922048102</v>
+        <v>0.753001570348611</v>
       </c>
       <c r="G5">
-        <v>0.7625512446299131</v>
+        <v>0.8915827782841665</v>
       </c>
       <c r="H5">
-        <v>0.7625512446299131</v>
+        <v>0.8915827782841665</v>
       </c>
       <c r="I5">
-        <v>0.763548415074074</v>
+        <v>0.8915827782841665</v>
       </c>
       <c r="J5">
-        <v>0.763548415074074</v>
+        <v>0.8915827782841665</v>
       </c>
       <c r="K5">
-        <v>0.763548415074074</v>
+        <v>0.8915827782841665</v>
       </c>
       <c r="L5">
-        <v>0.7718556478219422</v>
+        <v>0.8915827782841665</v>
       </c>
       <c r="M5">
-        <v>0.7908131017109034</v>
+        <v>0.8915827782841665</v>
       </c>
       <c r="N5">
-        <v>0.7922021353616562</v>
+        <v>0.8915827782841665</v>
       </c>
       <c r="O5">
-        <v>0.8713623926415182</v>
+        <v>0.9620328953141557</v>
       </c>
       <c r="P5">
-        <v>0.8713623926415182</v>
+        <v>0.9620328953141557</v>
       </c>
       <c r="Q5">
-        <v>0.872926195581353</v>
+        <v>0.9620328953141557</v>
       </c>
       <c r="R5">
-        <v>0.8970322419416675</v>
+        <v>0.9620328953141557</v>
       </c>
       <c r="S5">
-        <v>0.8970322419416675</v>
+        <v>0.9620328953141557</v>
       </c>
       <c r="T5">
-        <v>0.9511189067738045</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.9511189067738045</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9511189067738045</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9511189067738045</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.9511189067738045</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.9511189067738045</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9511189067738045</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9511189067738045</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9525900507082584</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9525900507082584</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9719161422360404</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9790350670727738</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9790350670727738</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -2355,94 +2355,94 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0854157778322381</v>
+        <v>0.08765313031307989</v>
       </c>
       <c r="F6">
-        <v>0.1765874347099342</v>
+        <v>0.1841630034974273</v>
       </c>
       <c r="G6">
-        <v>0.3555329842994829</v>
+        <v>0.4157331850064503</v>
       </c>
       <c r="H6">
-        <v>0.6481456359534119</v>
+        <v>0.822206328852867</v>
       </c>
       <c r="I6">
-        <v>0.6533892685479212</v>
+        <v>0.822206328852867</v>
       </c>
       <c r="J6">
-        <v>0.6633161663682192</v>
+        <v>0.822206328852867</v>
       </c>
       <c r="K6">
-        <v>0.6633161663682192</v>
+        <v>0.822206328852867</v>
       </c>
       <c r="L6">
-        <v>0.6633161663682192</v>
+        <v>0.822206328852867</v>
       </c>
       <c r="M6">
-        <v>0.6633161663682192</v>
+        <v>0.822206328852867</v>
       </c>
       <c r="N6">
-        <v>0.6814429742740894</v>
+        <v>0.822206328852867</v>
       </c>
       <c r="O6">
-        <v>0.6814429742740894</v>
+        <v>0.822206328852867</v>
       </c>
       <c r="P6">
-        <v>0.792426540279671</v>
+        <v>0.9492013778980697</v>
       </c>
       <c r="Q6">
-        <v>0.8158683808831628</v>
+        <v>0.9492013778980697</v>
       </c>
       <c r="R6">
-        <v>0.8158683808831628</v>
+        <v>0.9492013778980697</v>
       </c>
       <c r="S6">
-        <v>0.8448463596042364</v>
+        <v>0.9500119823345379</v>
       </c>
       <c r="T6">
-        <v>0.8449705185405016</v>
+        <v>0.9500119823345379</v>
       </c>
       <c r="U6">
-        <v>0.8983221647831869</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="V6">
-        <v>0.9099100533861516</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="W6">
-        <v>0.9160877724569403</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="X6">
-        <v>0.9160877724569403</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="Y6">
-        <v>0.9160877724569403</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="Z6">
-        <v>0.9160877724569403</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="AA6">
-        <v>0.9160877724569403</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="AB6">
-        <v>0.917392630296624</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="AC6">
-        <v>0.917392630296624</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="AD6">
-        <v>0.9192571941336789</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="AE6">
-        <v>0.9352399284482414</v>
+        <v>0.9883270764178176</v>
       </c>
       <c r="AF6">
-        <v>0.9688548280324475</v>
+        <v>0.9962726493751389</v>
       </c>
       <c r="AG6">
-        <v>0.9688548280324475</v>
+        <v>0.9962726493751389</v>
       </c>
       <c r="AH6">
-        <v>0.9997283611927444</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2462,91 +2462,91 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3681519126428766</v>
+        <v>0.4561267446306682</v>
       </c>
       <c r="E7">
-        <v>0.3691197395561305</v>
+        <v>0.4561267446306682</v>
       </c>
       <c r="F7">
-        <v>0.6344812246262643</v>
+        <v>0.7769035895222951</v>
       </c>
       <c r="G7">
-        <v>0.6979796958487245</v>
+        <v>0.8318761243193071</v>
       </c>
       <c r="H7">
-        <v>0.6979796958487245</v>
+        <v>0.8318761243193071</v>
       </c>
       <c r="I7">
-        <v>0.6979796958487245</v>
+        <v>0.8318761243193071</v>
       </c>
       <c r="J7">
-        <v>0.6979796958487245</v>
+        <v>0.8318761243193071</v>
       </c>
       <c r="K7">
-        <v>0.7182518188291421</v>
+        <v>0.8318761243193071</v>
       </c>
       <c r="L7">
-        <v>0.7182518188291421</v>
+        <v>0.8318761243193071</v>
       </c>
       <c r="M7">
-        <v>0.7257908185746974</v>
+        <v>0.8318761243193071</v>
       </c>
       <c r="N7">
-        <v>0.7827957186920361</v>
+        <v>0.8782982111925127</v>
       </c>
       <c r="O7">
-        <v>0.8724758712637429</v>
+        <v>0.9677456288098365</v>
       </c>
       <c r="P7">
-        <v>0.8724758712637429</v>
+        <v>0.9677456288098365</v>
       </c>
       <c r="Q7">
-        <v>0.8973105529669828</v>
+        <v>0.9718073914801884</v>
       </c>
       <c r="R7">
-        <v>0.9091873858833103</v>
+        <v>0.9718073914801884</v>
       </c>
       <c r="S7">
-        <v>0.9283030117979817</v>
+        <v>0.9718073914801884</v>
       </c>
       <c r="T7">
-        <v>0.9714636765077864</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.9714636765077864</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.9714636765077864</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9851418643017165</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.9851418643017165</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9851418643017165</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9851418643017165</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9851418643017165</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9851418643017165</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9851418643017165</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9851418643017165</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9851418643017165</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9851418643017165</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2327716032096546</v>
+        <v>0.3139283038710467</v>
       </c>
       <c r="E8">
-        <v>0.2572598637021564</v>
+        <v>0.3139283038710467</v>
       </c>
       <c r="F8">
-        <v>0.5108549334071297</v>
+        <v>0.6600692335886009</v>
       </c>
       <c r="G8">
-        <v>0.645857192557639</v>
+        <v>0.8227543570725724</v>
       </c>
       <c r="H8">
-        <v>0.645857192557639</v>
+        <v>0.8227543570725724</v>
       </c>
       <c r="I8">
-        <v>0.645857192557639</v>
+        <v>0.8227543570725724</v>
       </c>
       <c r="J8">
-        <v>0.6472769087803659</v>
+        <v>0.8227543570725724</v>
       </c>
       <c r="K8">
-        <v>0.6577593409514055</v>
+        <v>0.8227543570725724</v>
       </c>
       <c r="L8">
-        <v>0.6577593409514055</v>
+        <v>0.8227543570725724</v>
       </c>
       <c r="M8">
-        <v>0.6666338432318422</v>
+        <v>0.8227543570725724</v>
       </c>
       <c r="N8">
-        <v>0.6786586526530256</v>
+        <v>0.8227543570725724</v>
       </c>
       <c r="O8">
-        <v>0.7808505918772729</v>
+        <v>0.9346839274440741</v>
       </c>
       <c r="P8">
-        <v>0.7808505918772729</v>
+        <v>0.9346839274440741</v>
       </c>
       <c r="Q8">
-        <v>0.7979646903135746</v>
+        <v>0.9346839274440741</v>
       </c>
       <c r="R8">
-        <v>0.8367999483183534</v>
+        <v>0.9486045967779895</v>
       </c>
       <c r="S8">
-        <v>0.8406257661043396</v>
+        <v>0.9486045967779895</v>
       </c>
       <c r="T8">
-        <v>0.9036861173771464</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.9036861173771464</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.9040990395891455</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9178843288013629</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.9251835862329613</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9251835862329613</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9277570743525887</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9329461926798766</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9329461926798766</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9329461926798766</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.949107141780964</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9682793138400834</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9682793138400834</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9916670072133207</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,94 +2682,94 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07982759441955263</v>
+        <v>0.07689036382038421</v>
       </c>
       <c r="E9">
-        <v>0.1903068581431981</v>
+        <v>0.2009599169251506</v>
       </c>
       <c r="F9">
-        <v>0.4145536733334966</v>
+        <v>0.5001410044724871</v>
       </c>
       <c r="G9">
-        <v>0.6660364623609369</v>
+        <v>0.8412438272525411</v>
       </c>
       <c r="H9">
-        <v>0.6686325075593842</v>
+        <v>0.8412438272525411</v>
       </c>
       <c r="I9">
-        <v>0.6901784107305127</v>
+        <v>0.8412438272525411</v>
       </c>
       <c r="J9">
-        <v>0.6913207361089526</v>
+        <v>0.8412438272525411</v>
       </c>
       <c r="K9">
-        <v>0.6913207361089526</v>
+        <v>0.8412438272525411</v>
       </c>
       <c r="L9">
-        <v>0.6913207361089526</v>
+        <v>0.8412438272525411</v>
       </c>
       <c r="M9">
-        <v>0.6928827347649676</v>
+        <v>0.8412438272525411</v>
       </c>
       <c r="N9">
-        <v>0.6928827347649676</v>
+        <v>0.8412438272525411</v>
       </c>
       <c r="O9">
-        <v>0.7872691174875571</v>
+        <v>0.9405431444739888</v>
       </c>
       <c r="P9">
-        <v>0.7915305993805581</v>
+        <v>0.9405431444739888</v>
       </c>
       <c r="Q9">
-        <v>0.795644231376921</v>
+        <v>0.9405431444739888</v>
       </c>
       <c r="R9">
-        <v>0.8286556164069256</v>
+        <v>0.9453737851369192</v>
       </c>
       <c r="S9">
-        <v>0.8289355693786891</v>
+        <v>0.9453737851369192</v>
       </c>
       <c r="T9">
-        <v>0.8942984529473872</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.8942984529473872</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.9022993594775314</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9104595710306238</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.9205587833584601</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.9207605998567667</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.9219494404382371</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.9228461827606457</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.9228461827606457</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9238630097520975</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9377938551262682</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9591798181221832</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9591798181221832</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9813123491790822</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2792,94 +2792,94 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05496710536619327</v>
+        <v>0.03970642350341787</v>
       </c>
       <c r="E10">
-        <v>0.1913554315433213</v>
+        <v>0.2087556345527427</v>
       </c>
       <c r="F10">
-        <v>0.4042342700362901</v>
+        <v>0.4993148891166286</v>
       </c>
       <c r="G10">
-        <v>0.665878717469055</v>
+        <v>0.8673414149130743</v>
       </c>
       <c r="H10">
-        <v>0.6670999841851364</v>
+        <v>0.8673414149130743</v>
       </c>
       <c r="I10">
-        <v>0.6985306943765841</v>
+        <v>0.8696587777961339</v>
       </c>
       <c r="J10">
-        <v>0.7057491169558943</v>
+        <v>0.8696587777961339</v>
       </c>
       <c r="K10">
-        <v>0.7057491169558943</v>
+        <v>0.8696587777961339</v>
       </c>
       <c r="L10">
-        <v>0.7057491169558943</v>
+        <v>0.8696587777961339</v>
       </c>
       <c r="M10">
-        <v>0.7111548544109011</v>
+        <v>0.8696587777961339</v>
       </c>
       <c r="N10">
-        <v>0.7111548544109011</v>
+        <v>0.8696587777961339</v>
       </c>
       <c r="O10">
-        <v>0.7931578864597643</v>
+        <v>0.9523134902860718</v>
       </c>
       <c r="P10">
-        <v>0.7954769544840165</v>
+        <v>0.9523134902860718</v>
       </c>
       <c r="Q10">
-        <v>0.8002690365329982</v>
+        <v>0.9523134902860718</v>
       </c>
       <c r="R10">
-        <v>0.8378916073756927</v>
+        <v>0.9644670176082246</v>
       </c>
       <c r="S10">
-        <v>0.8384561958499143</v>
+        <v>0.9644670176082246</v>
       </c>
       <c r="T10">
-        <v>0.8907961220997469</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.8913544393072795</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.8979475524674146</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9099281640921524</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.9157909337586078</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.9157909337586078</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9186798640526914</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9197120581783922</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9197278666843333</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.922590577842238</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.935703336910837</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9563077166400129</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9567451606749889</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9822952171302832</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.208603462038011</v>
+        <v>0.3047941719141122</v>
       </c>
       <c r="E11">
-        <v>0.2460361512910657</v>
+        <v>0.3191622166834412</v>
       </c>
       <c r="F11">
-        <v>0.4114721798751674</v>
+        <v>0.5507140335341144</v>
       </c>
       <c r="G11">
-        <v>0.5322391622854399</v>
+        <v>0.7064757030807562</v>
       </c>
       <c r="H11">
-        <v>0.5435645581070266</v>
+        <v>0.7064757030807562</v>
       </c>
       <c r="I11">
-        <v>0.5435645581070266</v>
+        <v>0.7064757030807562</v>
       </c>
       <c r="J11">
-        <v>0.5435645581070266</v>
+        <v>0.7064757030807562</v>
       </c>
       <c r="K11">
-        <v>0.5446075902119731</v>
+        <v>0.7064757030807562</v>
       </c>
       <c r="L11">
-        <v>0.5446075902119731</v>
+        <v>0.7064757030807562</v>
       </c>
       <c r="M11">
-        <v>0.5885412020086718</v>
+        <v>0.7318738888402806</v>
       </c>
       <c r="N11">
-        <v>0.5914506183914249</v>
+        <v>0.7318738888402806</v>
       </c>
       <c r="O11">
-        <v>0.7514072588499234</v>
+        <v>0.9541288061878986</v>
       </c>
       <c r="P11">
-        <v>0.7633544083069916</v>
+        <v>0.9541288061878986</v>
       </c>
       <c r="Q11">
-        <v>0.7755866614234143</v>
+        <v>0.9541288061878986</v>
       </c>
       <c r="R11">
-        <v>0.8047499467792825</v>
+        <v>0.9544661206603384</v>
       </c>
       <c r="S11">
-        <v>0.8047499467792825</v>
+        <v>0.9544661206603384</v>
       </c>
       <c r="T11">
-        <v>0.8540888610262793</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="U11">
-        <v>0.8540888610262793</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="V11">
-        <v>0.8540888610262793</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="W11">
-        <v>0.8772678840849623</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="X11">
-        <v>0.8940741661566485</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="Y11">
-        <v>0.8940741661566485</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="Z11">
-        <v>0.8940741661566485</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="AA11">
-        <v>0.8981919438274391</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="AB11">
-        <v>0.8981919438274391</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="AC11">
-        <v>0.8981919438274391</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="AD11">
-        <v>0.9095544464256017</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="AE11">
-        <v>0.935608808196957</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="AF11">
-        <v>0.935608808196957</v>
+        <v>0.9890355044646277</v>
       </c>
       <c r="AG11">
-        <v>0.9706536521782492</v>
+        <v>0.9993520827177063</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.599396711471497</v>
       </c>
       <c r="F2">
-        <v>0.5079389192527135</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>57</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8476657570621586</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.6372005532526348</v>
-      </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>57</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.8028969903680454</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.6595651744228981</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>57</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.753001570348611</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6308006922048102</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>57</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.822206328852867</v>
+      </c>
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.6481456359534119</v>
-      </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>57</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.7769035895222951</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.6344812246262643</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>57</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.6600692335886009</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5108549334071297</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>57</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5001410044724871</v>
       </c>
       <c r="F9">
-        <v>0.6660364623609369</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>57</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.8673414149130743</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.665878717469055</v>
-      </c>
       <c r="G10">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>57</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5507140335341144</v>
       </c>
       <c r="F11">
-        <v>0.5322391622854399</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>57</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.8515670668911006</v>
+      </c>
+      <c r="F2">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7364882954152645</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>57</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8476657570621586</v>
       </c>
       <c r="F3">
-        <v>0.7444066676799631</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>57</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8028969903680454</v>
       </c>
       <c r="F4">
-        <v>0.705063483680656</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>57</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.753001570348611</v>
       </c>
       <c r="F5">
-        <v>0.7625512446299131</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>57</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.822206328852867</v>
       </c>
       <c r="F6">
-        <v>0.792426540279671</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>57</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7769035895222951</v>
       </c>
       <c r="F7">
-        <v>0.7182518188291421</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>57</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8227543570725724</v>
       </c>
       <c r="F8">
-        <v>0.7808505918772729</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>57</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8412438272525411</v>
       </c>
       <c r="F9">
-        <v>0.7872691174875571</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>57</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8673414149130743</v>
       </c>
       <c r="F10">
-        <v>0.7057491169558943</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>57</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7064757030807562</v>
       </c>
       <c r="F11">
-        <v>0.7514072588499234</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>57</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8515670668911006</v>
       </c>
       <c r="F2">
-        <v>0.8814881645255582</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>57</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8476657570621586</v>
       </c>
       <c r="F3">
-        <v>0.8180589348311632</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>57</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8028969903680454</v>
       </c>
       <c r="F4">
-        <v>0.8276701510082137</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>57</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8915827782841665</v>
       </c>
       <c r="F5">
-        <v>0.8713623926415182</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>57</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.822206328852867</v>
       </c>
       <c r="F6">
-        <v>0.8158683808831628</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>57</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8318761243193071</v>
       </c>
       <c r="F7">
-        <v>0.8724758712637429</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>57</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8227543570725724</v>
       </c>
       <c r="F8">
-        <v>0.8367999483183534</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>57</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8412438272525411</v>
       </c>
       <c r="F9">
-        <v>0.8286556164069256</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>57</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8673414149130743</v>
       </c>
       <c r="F10">
-        <v>0.8002690365329982</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>57</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9541288061878986</v>
       </c>
       <c r="F11">
-        <v>0.8047499467792825</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>57</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>29</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9703155511897381</v>
       </c>
       <c r="F2">
-        <v>0.9232334682538695</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>57</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9660782156526001</v>
       </c>
       <c r="F3">
-        <v>0.9003914925235751</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>57</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9176940772743425</v>
       </c>
       <c r="F4">
-        <v>0.9411649393506706</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>57</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9620328953141557</v>
       </c>
       <c r="F5">
-        <v>0.9511189067738045</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>57</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9492013778980697</v>
       </c>
       <c r="F6">
-        <v>0.9099100533861516</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>57</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9677456288098365</v>
       </c>
       <c r="F7">
-        <v>0.9091873858833103</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>57</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9346839274440741</v>
       </c>
       <c r="F8">
-        <v>0.9036861173771464</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>57</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9405431444739888</v>
       </c>
       <c r="F9">
-        <v>0.9022993594775314</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>57</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9523134902860718</v>
       </c>
       <c r="F10">
-        <v>0.9099281640921524</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>57</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>29</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9541288061878986</v>
       </c>
       <c r="F11">
-        <v>0.9095544464256017</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>57</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
